--- a/dev/Book2.xlsx
+++ b/dev/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisdreano/knitxl/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A4B5F02-1610-4640-8C69-7496D3BFE294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04353516-D174-704E-9C6E-411966973535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="8800" windowWidth="33640" windowHeight="16940" xr2:uid="{01C42585-E33E-BA4D-978E-A4D6551ED25A}"/>
   </bookViews>
@@ -38,25 +38,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>title</t>
+    <t>lorem ipsum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -78,26 +70,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,20 +390,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F736A56-168E-5F49-9C6F-EA7C5C595C4B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
